--- a/data/Sioma/repique.xlsx
+++ b/data/Sioma/repique.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10444" uniqueCount="3517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10458" uniqueCount="3525">
   <si>
     <t>Código</t>
   </si>
@@ -8561,6 +8561,18 @@
     <t>2024-04-19 12:02:51</t>
   </si>
   <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>8.734623000000</t>
+  </si>
+  <si>
+    <t>-76.600770000000</t>
+  </si>
+  <si>
+    <t>2024-04-27 09:09:54</t>
+  </si>
+  <si>
     <t>N181</t>
   </si>
   <si>
@@ -10247,9 +10259,6 @@
     <t>2024-04-19 12:58:13</t>
   </si>
   <si>
-    <t>D08</t>
-  </si>
-  <si>
     <t>8.734287000000</t>
   </si>
   <si>
@@ -10494,6 +10503,21 @@
   </si>
   <si>
     <t>2024-05-01 09:19:16</t>
+  </si>
+  <si>
+    <t>Q 811</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8.733468000000</t>
+  </si>
+  <si>
+    <t>-76.605787000000</t>
+  </si>
+  <si>
+    <t>2024-04-27 06:20:56</t>
   </si>
   <si>
     <t>1004</t>
@@ -10931,7 +10955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1492"/>
+  <dimension ref="A1:G1494"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39205,13 +39229,13 @@
     </row>
     <row r="1230">
       <c r="A1230" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1230" t="s">
         <v>2850</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1230" t="s">
-        <v>339</v>
       </c>
       <c r="D1230" t="s">
         <v>2851</v>
@@ -39228,7 +39252,7 @@
     </row>
     <row r="1231">
       <c r="A1231" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="B1231" t="s">
         <v>8</v>
@@ -39237,21 +39261,21 @@
         <v>339</v>
       </c>
       <c r="D1231" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="E1231" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="F1231" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="G1231" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="B1232" t="s">
         <v>8</v>
@@ -39260,13 +39284,13 @@
         <v>339</v>
       </c>
       <c r="D1232" t="s">
-        <v>2851</v>
+        <v>2858</v>
       </c>
       <c r="E1232" t="s">
-        <v>2852</v>
+        <v>2859</v>
       </c>
       <c r="F1232" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="G1232" t="s">
         <v>142</v>
@@ -39274,7 +39298,7 @@
     </row>
     <row r="1233">
       <c r="A1233" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="B1233" t="s">
         <v>8</v>
@@ -39283,21 +39307,21 @@
         <v>339</v>
       </c>
       <c r="D1233" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="E1233" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="F1233" t="s">
         <v>2861</v>
       </c>
       <c r="G1233" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1234" t="s">
         <v>8</v>
@@ -39306,13 +39330,13 @@
         <v>339</v>
       </c>
       <c r="D1234" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="E1234" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="F1234" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="G1234" t="s">
         <v>13</v>
@@ -39320,7 +39344,7 @@
     </row>
     <row r="1235">
       <c r="A1235" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1235" t="s">
         <v>8</v>
@@ -39329,13 +39353,13 @@
         <v>339</v>
       </c>
       <c r="D1235" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="E1235" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="F1235" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="G1235" t="s">
         <v>13</v>
@@ -39343,7 +39367,7 @@
     </row>
     <row r="1236">
       <c r="A1236" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1236" t="s">
         <v>8</v>
@@ -39352,13 +39376,13 @@
         <v>339</v>
       </c>
       <c r="D1236" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="E1236" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="F1236" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="G1236" t="s">
         <v>13</v>
@@ -39366,7 +39390,7 @@
     </row>
     <row r="1237">
       <c r="A1237" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1237" t="s">
         <v>8</v>
@@ -39375,13 +39399,13 @@
         <v>339</v>
       </c>
       <c r="D1237" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="E1237" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="F1237" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="G1237" t="s">
         <v>13</v>
@@ -39389,7 +39413,7 @@
     </row>
     <row r="1238">
       <c r="A1238" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1238" t="s">
         <v>8</v>
@@ -39398,13 +39422,13 @@
         <v>339</v>
       </c>
       <c r="D1238" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E1238" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="F1238" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="G1238" t="s">
         <v>13</v>
@@ -39412,7 +39436,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1239" t="s">
         <v>8</v>
@@ -39421,13 +39445,13 @@
         <v>339</v>
       </c>
       <c r="D1239" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="E1239" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="F1239" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="G1239" t="s">
         <v>13</v>
@@ -39435,7 +39459,7 @@
     </row>
     <row r="1240">
       <c r="A1240" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1240" t="s">
         <v>8</v>
@@ -39444,13 +39468,13 @@
         <v>339</v>
       </c>
       <c r="D1240" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="E1240" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="F1240" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="G1240" t="s">
         <v>13</v>
@@ -39458,7 +39482,7 @@
     </row>
     <row r="1241">
       <c r="A1241" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1241" t="s">
         <v>8</v>
@@ -39467,13 +39491,13 @@
         <v>339</v>
       </c>
       <c r="D1241" t="s">
-        <v>550</v>
+        <v>2884</v>
       </c>
       <c r="E1241" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="F1241" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="G1241" t="s">
         <v>13</v>
@@ -39481,7 +39505,7 @@
     </row>
     <row r="1242">
       <c r="A1242" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1242" t="s">
         <v>8</v>
@@ -39490,13 +39514,13 @@
         <v>339</v>
       </c>
       <c r="D1242" t="s">
-        <v>2885</v>
+        <v>550</v>
       </c>
       <c r="E1242" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="F1242" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="G1242" t="s">
         <v>13</v>
@@ -39504,7 +39528,7 @@
     </row>
     <row r="1243">
       <c r="A1243" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1243" t="s">
         <v>8</v>
@@ -39513,13 +39537,13 @@
         <v>339</v>
       </c>
       <c r="D1243" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="E1243" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="F1243" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="G1243" t="s">
         <v>13</v>
@@ -39527,7 +39551,7 @@
     </row>
     <row r="1244">
       <c r="A1244" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1244" t="s">
         <v>8</v>
@@ -39536,13 +39560,13 @@
         <v>339</v>
       </c>
       <c r="D1244" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="E1244" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="F1244" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="G1244" t="s">
         <v>13</v>
@@ -39550,7 +39574,7 @@
     </row>
     <row r="1245">
       <c r="A1245" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1245" t="s">
         <v>8</v>
@@ -39559,13 +39583,13 @@
         <v>339</v>
       </c>
       <c r="D1245" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="E1245" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="F1245" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="G1245" t="s">
         <v>13</v>
@@ -39573,7 +39597,7 @@
     </row>
     <row r="1246">
       <c r="A1246" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1246" t="s">
         <v>8</v>
@@ -39582,13 +39606,13 @@
         <v>339</v>
       </c>
       <c r="D1246" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="E1246" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="F1246" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="G1246" t="s">
         <v>13</v>
@@ -39596,7 +39620,7 @@
     </row>
     <row r="1247">
       <c r="A1247" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1247" t="s">
         <v>8</v>
@@ -39605,13 +39629,13 @@
         <v>339</v>
       </c>
       <c r="D1247" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="E1247" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="F1247" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="G1247" t="s">
         <v>13</v>
@@ -39619,7 +39643,7 @@
     </row>
     <row r="1248">
       <c r="A1248" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1248" t="s">
         <v>8</v>
@@ -39628,13 +39652,13 @@
         <v>339</v>
       </c>
       <c r="D1248" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="E1248" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="F1248" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="G1248" t="s">
         <v>13</v>
@@ -39642,7 +39666,7 @@
     </row>
     <row r="1249">
       <c r="A1249" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1249" t="s">
         <v>8</v>
@@ -39651,13 +39675,13 @@
         <v>339</v>
       </c>
       <c r="D1249" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="E1249" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="F1249" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="G1249" t="s">
         <v>13</v>
@@ -39665,7 +39689,7 @@
     </row>
     <row r="1250">
       <c r="A1250" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1250" t="s">
         <v>8</v>
@@ -39674,13 +39698,13 @@
         <v>339</v>
       </c>
       <c r="D1250" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="E1250" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="F1250" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="G1250" t="s">
         <v>13</v>
@@ -39688,7 +39712,7 @@
     </row>
     <row r="1251">
       <c r="A1251" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1251" t="s">
         <v>8</v>
@@ -39697,13 +39721,13 @@
         <v>339</v>
       </c>
       <c r="D1251" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="E1251" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="F1251" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="G1251" t="s">
         <v>13</v>
@@ -39711,7 +39735,7 @@
     </row>
     <row r="1252">
       <c r="A1252" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1252" t="s">
         <v>8</v>
@@ -39720,13 +39744,13 @@
         <v>339</v>
       </c>
       <c r="D1252" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="E1252" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="F1252" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="G1252" t="s">
         <v>13</v>
@@ -39734,7 +39758,7 @@
     </row>
     <row r="1253">
       <c r="A1253" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1253" t="s">
         <v>8</v>
@@ -39743,13 +39767,13 @@
         <v>339</v>
       </c>
       <c r="D1253" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="E1253" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="F1253" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="G1253" t="s">
         <v>13</v>
@@ -39757,7 +39781,7 @@
     </row>
     <row r="1254">
       <c r="A1254" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1254" t="s">
         <v>8</v>
@@ -39766,13 +39790,13 @@
         <v>339</v>
       </c>
       <c r="D1254" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="E1254" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="F1254" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="G1254" t="s">
         <v>13</v>
@@ -39780,7 +39804,7 @@
     </row>
     <row r="1255">
       <c r="A1255" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1255" t="s">
         <v>8</v>
@@ -39789,21 +39813,21 @@
         <v>339</v>
       </c>
       <c r="D1255" t="s">
-        <v>946</v>
+        <v>2925</v>
       </c>
       <c r="E1255" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="F1255" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="G1255" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1256" t="s">
         <v>8</v>
@@ -39812,13 +39836,13 @@
         <v>339</v>
       </c>
       <c r="D1256" t="s">
-        <v>2926</v>
+        <v>946</v>
       </c>
       <c r="E1256" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="F1256" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="G1256" t="s">
         <v>69</v>
@@ -39826,7 +39850,7 @@
     </row>
     <row r="1257">
       <c r="A1257" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1257" t="s">
         <v>8</v>
@@ -39835,13 +39859,13 @@
         <v>339</v>
       </c>
       <c r="D1257" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="E1257" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="F1257" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="G1257" t="s">
         <v>69</v>
@@ -39849,7 +39873,7 @@
     </row>
     <row r="1258">
       <c r="A1258" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1258" t="s">
         <v>8</v>
@@ -39858,13 +39882,13 @@
         <v>339</v>
       </c>
       <c r="D1258" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="E1258" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="F1258" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="G1258" t="s">
         <v>69</v>
@@ -39872,7 +39896,7 @@
     </row>
     <row r="1259">
       <c r="A1259" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1259" t="s">
         <v>8</v>
@@ -39881,13 +39905,13 @@
         <v>339</v>
       </c>
       <c r="D1259" t="s">
-        <v>2862</v>
+        <v>2933</v>
       </c>
       <c r="E1259" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="F1259" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="G1259" t="s">
         <v>69</v>
@@ -39895,7 +39919,7 @@
     </row>
     <row r="1260">
       <c r="A1260" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1260" t="s">
         <v>8</v>
@@ -39904,13 +39928,13 @@
         <v>339</v>
       </c>
       <c r="D1260" t="s">
-        <v>2935</v>
+        <v>2866</v>
       </c>
       <c r="E1260" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="F1260" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="G1260" t="s">
         <v>69</v>
@@ -39918,7 +39942,7 @@
     </row>
     <row r="1261">
       <c r="A1261" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1261" t="s">
         <v>8</v>
@@ -39927,13 +39951,13 @@
         <v>339</v>
       </c>
       <c r="D1261" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="E1261" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="F1261" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="G1261" t="s">
         <v>69</v>
@@ -39941,7 +39965,7 @@
     </row>
     <row r="1262">
       <c r="A1262" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1262" t="s">
         <v>8</v>
@@ -39950,13 +39974,13 @@
         <v>339</v>
       </c>
       <c r="D1262" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="E1262" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="F1262" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="G1262" t="s">
         <v>69</v>
@@ -39964,7 +39988,7 @@
     </row>
     <row r="1263">
       <c r="A1263" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1263" t="s">
         <v>8</v>
@@ -39973,13 +39997,13 @@
         <v>339</v>
       </c>
       <c r="D1263" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="E1263" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="F1263" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="G1263" t="s">
         <v>69</v>
@@ -39987,7 +40011,7 @@
     </row>
     <row r="1264">
       <c r="A1264" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1264" t="s">
         <v>8</v>
@@ -39996,13 +40020,13 @@
         <v>339</v>
       </c>
       <c r="D1264" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="E1264" t="s">
-        <v>2175</v>
+        <v>2949</v>
       </c>
       <c r="F1264" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="G1264" t="s">
         <v>69</v>
@@ -40010,7 +40034,7 @@
     </row>
     <row r="1265">
       <c r="A1265" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1265" t="s">
         <v>8</v>
@@ -40019,13 +40043,13 @@
         <v>339</v>
       </c>
       <c r="D1265" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="E1265" t="s">
-        <v>2950</v>
+        <v>2175</v>
       </c>
       <c r="F1265" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="G1265" t="s">
         <v>69</v>
@@ -40033,7 +40057,7 @@
     </row>
     <row r="1266">
       <c r="A1266" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1266" t="s">
         <v>8</v>
@@ -40042,13 +40066,13 @@
         <v>339</v>
       </c>
       <c r="D1266" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="E1266" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="F1266" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="G1266" t="s">
         <v>69</v>
@@ -40056,7 +40080,7 @@
     </row>
     <row r="1267">
       <c r="A1267" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1267" t="s">
         <v>8</v>
@@ -40065,13 +40089,13 @@
         <v>339</v>
       </c>
       <c r="D1267" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="E1267" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="F1267" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="G1267" t="s">
         <v>69</v>
@@ -40079,7 +40103,7 @@
     </row>
     <row r="1268">
       <c r="A1268" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1268" t="s">
         <v>8</v>
@@ -40088,13 +40112,13 @@
         <v>339</v>
       </c>
       <c r="D1268" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="E1268" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="F1268" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="G1268" t="s">
         <v>69</v>
@@ -40102,7 +40126,7 @@
     </row>
     <row r="1269">
       <c r="A1269" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1269" t="s">
         <v>8</v>
@@ -40111,13 +40135,13 @@
         <v>339</v>
       </c>
       <c r="D1269" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="E1269" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="F1269" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="G1269" t="s">
         <v>69</v>
@@ -40125,7 +40149,7 @@
     </row>
     <row r="1270">
       <c r="A1270" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1270" t="s">
         <v>8</v>
@@ -40134,21 +40158,21 @@
         <v>339</v>
       </c>
       <c r="D1270" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="E1270" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="F1270" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="G1270" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1271" t="s">
         <v>8</v>
@@ -40157,13 +40181,13 @@
         <v>339</v>
       </c>
       <c r="D1271" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="E1271" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="F1271" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="G1271" t="s">
         <v>142</v>
@@ -40171,7 +40195,7 @@
     </row>
     <row r="1272">
       <c r="A1272" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1272" t="s">
         <v>8</v>
@@ -40180,13 +40204,13 @@
         <v>339</v>
       </c>
       <c r="D1272" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="E1272" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="F1272" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="G1272" t="s">
         <v>142</v>
@@ -40194,7 +40218,7 @@
     </row>
     <row r="1273">
       <c r="A1273" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1273" t="s">
         <v>8</v>
@@ -40203,13 +40227,13 @@
         <v>339</v>
       </c>
       <c r="D1273" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="E1273" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="F1273" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="G1273" t="s">
         <v>142</v>
@@ -40217,7 +40241,7 @@
     </row>
     <row r="1274">
       <c r="A1274" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1274" t="s">
         <v>8</v>
@@ -40226,13 +40250,13 @@
         <v>339</v>
       </c>
       <c r="D1274" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="E1274" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="F1274" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="G1274" t="s">
         <v>142</v>
@@ -40240,7 +40264,7 @@
     </row>
     <row r="1275">
       <c r="A1275" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1275" t="s">
         <v>8</v>
@@ -40249,13 +40273,13 @@
         <v>339</v>
       </c>
       <c r="D1275" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E1275" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="F1275" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="G1275" t="s">
         <v>142</v>
@@ -40263,7 +40287,7 @@
     </row>
     <row r="1276">
       <c r="A1276" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1276" t="s">
         <v>8</v>
@@ -40272,13 +40296,13 @@
         <v>339</v>
       </c>
       <c r="D1276" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="E1276" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="F1276" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="G1276" t="s">
         <v>142</v>
@@ -40286,7 +40310,7 @@
     </row>
     <row r="1277">
       <c r="A1277" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1277" t="s">
         <v>8</v>
@@ -40295,13 +40319,13 @@
         <v>339</v>
       </c>
       <c r="D1277" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="E1277" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="F1277" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="G1277" t="s">
         <v>142</v>
@@ -40309,7 +40333,7 @@
     </row>
     <row r="1278">
       <c r="A1278" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1278" t="s">
         <v>8</v>
@@ -40318,13 +40342,13 @@
         <v>339</v>
       </c>
       <c r="D1278" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="E1278" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="F1278" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="G1278" t="s">
         <v>142</v>
@@ -40332,7 +40356,7 @@
     </row>
     <row r="1279">
       <c r="A1279" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1279" t="s">
         <v>8</v>
@@ -40341,13 +40365,13 @@
         <v>339</v>
       </c>
       <c r="D1279" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="E1279" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="F1279" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="G1279" t="s">
         <v>142</v>
@@ -40355,7 +40379,7 @@
     </row>
     <row r="1280">
       <c r="A1280" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1280" t="s">
         <v>8</v>
@@ -40364,13 +40388,13 @@
         <v>339</v>
       </c>
       <c r="D1280" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="E1280" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="F1280" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="G1280" t="s">
         <v>142</v>
@@ -40378,7 +40402,7 @@
     </row>
     <row r="1281">
       <c r="A1281" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1281" t="s">
         <v>8</v>
@@ -40387,13 +40411,13 @@
         <v>339</v>
       </c>
       <c r="D1281" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="E1281" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="F1281" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="G1281" t="s">
         <v>142</v>
@@ -40401,7 +40425,7 @@
     </row>
     <row r="1282">
       <c r="A1282" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1282" t="s">
         <v>8</v>
@@ -40410,13 +40434,13 @@
         <v>339</v>
       </c>
       <c r="D1282" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E1282" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="F1282" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="G1282" t="s">
         <v>142</v>
@@ -40424,7 +40448,7 @@
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1283" t="s">
         <v>8</v>
@@ -40433,21 +40457,21 @@
         <v>339</v>
       </c>
       <c r="D1283" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="E1283" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="F1283" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="G1283" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1284" t="s">
         <v>8</v>
@@ -40456,13 +40480,13 @@
         <v>339</v>
       </c>
       <c r="D1284" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="E1284" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="F1284" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="G1284" t="s">
         <v>149</v>
@@ -40470,7 +40494,7 @@
     </row>
     <row r="1285">
       <c r="A1285" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1285" t="s">
         <v>8</v>
@@ -40479,13 +40503,13 @@
         <v>339</v>
       </c>
       <c r="D1285" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E1285" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="F1285" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="G1285" t="s">
         <v>149</v>
@@ -40493,7 +40517,7 @@
     </row>
     <row r="1286">
       <c r="A1286" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1286" t="s">
         <v>8</v>
@@ -40502,13 +40526,13 @@
         <v>339</v>
       </c>
       <c r="D1286" t="s">
-        <v>2926</v>
+        <v>3013</v>
       </c>
       <c r="E1286" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="F1286" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="G1286" t="s">
         <v>149</v>
@@ -40516,7 +40540,7 @@
     </row>
     <row r="1287">
       <c r="A1287" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1287" t="s">
         <v>8</v>
@@ -40525,13 +40549,13 @@
         <v>339</v>
       </c>
       <c r="D1287" t="s">
-        <v>3014</v>
+        <v>2930</v>
       </c>
       <c r="E1287" t="s">
-        <v>2945</v>
+        <v>3016</v>
       </c>
       <c r="F1287" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="G1287" t="s">
         <v>149</v>
@@ -40539,7 +40563,7 @@
     </row>
     <row r="1288">
       <c r="A1288" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1288" t="s">
         <v>8</v>
@@ -40548,13 +40572,13 @@
         <v>339</v>
       </c>
       <c r="D1288" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="E1288" t="s">
-        <v>3017</v>
+        <v>2949</v>
       </c>
       <c r="F1288" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="G1288" t="s">
         <v>149</v>
@@ -40562,7 +40586,7 @@
     </row>
     <row r="1289">
       <c r="A1289" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1289" t="s">
         <v>8</v>
@@ -40571,13 +40595,13 @@
         <v>339</v>
       </c>
       <c r="D1289" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="E1289" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="F1289" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="G1289" t="s">
         <v>149</v>
@@ -40585,7 +40609,7 @@
     </row>
     <row r="1290">
       <c r="A1290" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1290" t="s">
         <v>8</v>
@@ -40594,13 +40618,13 @@
         <v>339</v>
       </c>
       <c r="D1290" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="E1290" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="F1290" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="G1290" t="s">
         <v>149</v>
@@ -40608,7 +40632,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1291" t="s">
         <v>8</v>
@@ -40617,13 +40641,13 @@
         <v>339</v>
       </c>
       <c r="D1291" t="s">
-        <v>2880</v>
+        <v>3026</v>
       </c>
       <c r="E1291" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="F1291" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="G1291" t="s">
         <v>149</v>
@@ -40631,7 +40655,7 @@
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1292" t="s">
         <v>8</v>
@@ -40640,13 +40664,13 @@
         <v>339</v>
       </c>
       <c r="D1292" t="s">
-        <v>3027</v>
+        <v>2884</v>
       </c>
       <c r="E1292" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="F1292" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="G1292" t="s">
         <v>149</v>
@@ -40654,7 +40678,7 @@
     </row>
     <row r="1293">
       <c r="A1293" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1293" t="s">
         <v>8</v>
@@ -40663,13 +40687,13 @@
         <v>339</v>
       </c>
       <c r="D1293" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="E1293" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="F1293" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="G1293" t="s">
         <v>149</v>
@@ -40677,7 +40701,7 @@
     </row>
     <row r="1294">
       <c r="A1294" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1294" t="s">
         <v>8</v>
@@ -40686,13 +40710,13 @@
         <v>339</v>
       </c>
       <c r="D1294" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="E1294" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="F1294" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="G1294" t="s">
         <v>149</v>
@@ -40700,7 +40724,7 @@
     </row>
     <row r="1295">
       <c r="A1295" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1295" t="s">
         <v>8</v>
@@ -40709,13 +40733,13 @@
         <v>339</v>
       </c>
       <c r="D1295" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="E1295" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="F1295" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="G1295" t="s">
         <v>149</v>
@@ -40723,7 +40747,7 @@
     </row>
     <row r="1296">
       <c r="A1296" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1296" t="s">
         <v>8</v>
@@ -40732,13 +40756,13 @@
         <v>339</v>
       </c>
       <c r="D1296" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="E1296" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="F1296" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="G1296" t="s">
         <v>149</v>
@@ -40746,7 +40770,7 @@
     </row>
     <row r="1297">
       <c r="A1297" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1297" t="s">
         <v>8</v>
@@ -40755,13 +40779,13 @@
         <v>339</v>
       </c>
       <c r="D1297" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="E1297" t="s">
-        <v>977</v>
+        <v>3044</v>
       </c>
       <c r="F1297" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="G1297" t="s">
         <v>149</v>
@@ -40769,7 +40793,7 @@
     </row>
     <row r="1298">
       <c r="A1298" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1298" t="s">
         <v>8</v>
@@ -40778,13 +40802,13 @@
         <v>339</v>
       </c>
       <c r="D1298" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="E1298" t="s">
         <v>977</v>
       </c>
       <c r="F1298" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="G1298" t="s">
         <v>149</v>
@@ -40792,7 +40816,7 @@
     </row>
     <row r="1299">
       <c r="A1299" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1299" t="s">
         <v>8</v>
@@ -40801,13 +40825,13 @@
         <v>339</v>
       </c>
       <c r="D1299" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="E1299" t="s">
-        <v>3047</v>
+        <v>977</v>
       </c>
       <c r="F1299" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="G1299" t="s">
         <v>149</v>
@@ -40815,7 +40839,7 @@
     </row>
     <row r="1300">
       <c r="A1300" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1300" t="s">
         <v>8</v>
@@ -40824,13 +40848,13 @@
         <v>339</v>
       </c>
       <c r="D1300" t="s">
-        <v>2129</v>
+        <v>3050</v>
       </c>
       <c r="E1300" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="F1300" t="s">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="G1300" t="s">
         <v>149</v>
@@ -40838,7 +40862,7 @@
     </row>
     <row r="1301">
       <c r="A1301" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1301" t="s">
         <v>8</v>
@@ -40847,13 +40871,13 @@
         <v>339</v>
       </c>
       <c r="D1301" t="s">
-        <v>3051</v>
+        <v>2129</v>
       </c>
       <c r="E1301" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="F1301" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="G1301" t="s">
         <v>149</v>
@@ -40861,7 +40885,7 @@
     </row>
     <row r="1302">
       <c r="A1302" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1302" t="s">
         <v>8</v>
@@ -40870,13 +40894,13 @@
         <v>339</v>
       </c>
       <c r="D1302" t="s">
-        <v>2897</v>
+        <v>3055</v>
       </c>
       <c r="E1302" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="F1302" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="G1302" t="s">
         <v>149</v>
@@ -40884,7 +40908,7 @@
     </row>
     <row r="1303">
       <c r="A1303" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1303" t="s">
         <v>8</v>
@@ -40893,13 +40917,13 @@
         <v>339</v>
       </c>
       <c r="D1303" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="E1303" t="s">
-        <v>2898</v>
+        <v>3058</v>
       </c>
       <c r="F1303" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="G1303" t="s">
         <v>149</v>
@@ -40907,7 +40931,7 @@
     </row>
     <row r="1304">
       <c r="A1304" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1304" t="s">
         <v>8</v>
@@ -40916,13 +40940,13 @@
         <v>339</v>
       </c>
       <c r="D1304" t="s">
-        <v>3057</v>
+        <v>2901</v>
       </c>
       <c r="E1304" t="s">
-        <v>3058</v>
+        <v>2902</v>
       </c>
       <c r="F1304" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="G1304" t="s">
         <v>149</v>
@@ -40930,7 +40954,7 @@
     </row>
     <row r="1305">
       <c r="A1305" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1305" t="s">
         <v>8</v>
@@ -40939,13 +40963,13 @@
         <v>339</v>
       </c>
       <c r="D1305" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E1305" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="F1305" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="G1305" t="s">
         <v>149</v>
@@ -40953,7 +40977,7 @@
     </row>
     <row r="1306">
       <c r="A1306" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1306" t="s">
         <v>8</v>
@@ -40962,13 +40986,13 @@
         <v>339</v>
       </c>
       <c r="D1306" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
       <c r="E1306" t="s">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="F1306" t="s">
-        <v>3063</v>
+        <v>3066</v>
       </c>
       <c r="G1306" t="s">
         <v>149</v>
@@ -40976,7 +41000,7 @@
     </row>
     <row r="1307">
       <c r="A1307" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1307" t="s">
         <v>8</v>
@@ -40991,7 +41015,7 @@
         <v>3065</v>
       </c>
       <c r="F1307" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="G1307" t="s">
         <v>149</v>
@@ -40999,7 +41023,7 @@
     </row>
     <row r="1308">
       <c r="A1308" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1308" t="s">
         <v>8</v>
@@ -41008,13 +41032,13 @@
         <v>339</v>
       </c>
       <c r="D1308" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="E1308" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="F1308" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="G1308" t="s">
         <v>149</v>
@@ -41022,7 +41046,7 @@
     </row>
     <row r="1309">
       <c r="A1309" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1309" t="s">
         <v>8</v>
@@ -41031,13 +41055,13 @@
         <v>339</v>
       </c>
       <c r="D1309" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E1309" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="F1309" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="G1309" t="s">
         <v>149</v>
@@ -41045,7 +41069,7 @@
     </row>
     <row r="1310">
       <c r="A1310" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1310" t="s">
         <v>8</v>
@@ -41054,13 +41078,13 @@
         <v>339</v>
       </c>
       <c r="D1310" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="E1310" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="F1310" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="G1310" t="s">
         <v>149</v>
@@ -41068,7 +41092,7 @@
     </row>
     <row r="1311">
       <c r="A1311" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1311" t="s">
         <v>8</v>
@@ -41077,13 +41101,13 @@
         <v>339</v>
       </c>
       <c r="D1311" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="E1311" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="F1311" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="G1311" t="s">
         <v>149</v>
@@ -41091,7 +41115,7 @@
     </row>
     <row r="1312">
       <c r="A1312" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1312" t="s">
         <v>8</v>
@@ -41100,13 +41124,13 @@
         <v>339</v>
       </c>
       <c r="D1312" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="E1312" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="F1312" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="G1312" t="s">
         <v>149</v>
@@ -41114,7 +41138,7 @@
     </row>
     <row r="1313">
       <c r="A1313" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1313" t="s">
         <v>8</v>
@@ -41123,13 +41147,13 @@
         <v>339</v>
       </c>
       <c r="D1313" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="E1313" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="F1313" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="G1313" t="s">
         <v>149</v>
@@ -41137,7 +41161,7 @@
     </row>
     <row r="1314">
       <c r="A1314" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1314" t="s">
         <v>8</v>
@@ -41146,13 +41170,13 @@
         <v>339</v>
       </c>
       <c r="D1314" t="s">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="E1314" t="s">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="F1314" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="G1314" t="s">
         <v>149</v>
@@ -41160,7 +41184,7 @@
     </row>
     <row r="1315">
       <c r="A1315" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1315" t="s">
         <v>8</v>
@@ -41175,7 +41199,7 @@
         <v>3087</v>
       </c>
       <c r="F1315" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="G1315" t="s">
         <v>149</v>
@@ -41183,7 +41207,7 @@
     </row>
     <row r="1316">
       <c r="A1316" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1316" t="s">
         <v>8</v>
@@ -41192,13 +41216,13 @@
         <v>339</v>
       </c>
       <c r="D1316" t="s">
-        <v>340</v>
+        <v>3090</v>
       </c>
       <c r="E1316" t="s">
-        <v>3089</v>
+        <v>3091</v>
       </c>
       <c r="F1316" t="s">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="G1316" t="s">
         <v>149</v>
@@ -41206,7 +41230,7 @@
     </row>
     <row r="1317">
       <c r="A1317" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1317" t="s">
         <v>8</v>
@@ -41215,21 +41239,21 @@
         <v>339</v>
       </c>
       <c r="D1317" t="s">
-        <v>3091</v>
+        <v>340</v>
       </c>
       <c r="E1317" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="F1317" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="G1317" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1318" t="s">
         <v>8</v>
@@ -41238,13 +41262,13 @@
         <v>339</v>
       </c>
       <c r="D1318" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="E1318" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="F1318" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="G1318" t="s">
         <v>161</v>
@@ -41252,7 +41276,7 @@
     </row>
     <row r="1319">
       <c r="A1319" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1319" t="s">
         <v>8</v>
@@ -41261,13 +41285,13 @@
         <v>339</v>
       </c>
       <c r="D1319" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="E1319" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="F1319" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="G1319" t="s">
         <v>161</v>
@@ -41275,7 +41299,7 @@
     </row>
     <row r="1320">
       <c r="A1320" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1320" t="s">
         <v>8</v>
@@ -41284,13 +41308,13 @@
         <v>339</v>
       </c>
       <c r="D1320" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="E1320" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="F1320" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="G1320" t="s">
         <v>161</v>
@@ -41298,7 +41322,7 @@
     </row>
     <row r="1321">
       <c r="A1321" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1321" t="s">
         <v>8</v>
@@ -41307,13 +41331,13 @@
         <v>339</v>
       </c>
       <c r="D1321" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E1321" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="F1321" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="G1321" t="s">
         <v>161</v>
@@ -41321,7 +41345,7 @@
     </row>
     <row r="1322">
       <c r="A1322" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1322" t="s">
         <v>8</v>
@@ -41330,13 +41354,13 @@
         <v>339</v>
       </c>
       <c r="D1322" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="E1322" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="F1322" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="G1322" t="s">
         <v>161</v>
@@ -41344,7 +41368,7 @@
     </row>
     <row r="1323">
       <c r="A1323" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1323" t="s">
         <v>8</v>
@@ -41353,13 +41377,13 @@
         <v>339</v>
       </c>
       <c r="D1323" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="E1323" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="F1323" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="G1323" t="s">
         <v>161</v>
@@ -41367,7 +41391,7 @@
     </row>
     <row r="1324">
       <c r="A1324" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1324" t="s">
         <v>8</v>
@@ -41376,13 +41400,13 @@
         <v>339</v>
       </c>
       <c r="D1324" t="s">
-        <v>2132</v>
+        <v>3113</v>
       </c>
       <c r="E1324" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="F1324" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="G1324" t="s">
         <v>161</v>
@@ -41390,7 +41414,7 @@
     </row>
     <row r="1325">
       <c r="A1325" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1325" t="s">
         <v>8</v>
@@ -41399,13 +41423,13 @@
         <v>339</v>
       </c>
       <c r="D1325" t="s">
-        <v>3114</v>
+        <v>2132</v>
       </c>
       <c r="E1325" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="F1325" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="G1325" t="s">
         <v>161</v>
@@ -41413,7 +41437,7 @@
     </row>
     <row r="1326">
       <c r="A1326" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1326" t="s">
         <v>8</v>
@@ -41422,13 +41446,13 @@
         <v>339</v>
       </c>
       <c r="D1326" t="s">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="E1326" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="F1326" t="s">
-        <v>3117</v>
+        <v>3120</v>
       </c>
       <c r="G1326" t="s">
         <v>161</v>
@@ -41436,7 +41460,7 @@
     </row>
     <row r="1327">
       <c r="A1327" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1327" t="s">
         <v>8</v>
@@ -41451,7 +41475,7 @@
         <v>3119</v>
       </c>
       <c r="F1327" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="G1327" t="s">
         <v>161</v>
@@ -41459,7 +41483,7 @@
     </row>
     <row r="1328">
       <c r="A1328" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1328" t="s">
         <v>8</v>
@@ -41468,13 +41492,13 @@
         <v>339</v>
       </c>
       <c r="D1328" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="E1328" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="F1328" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="G1328" t="s">
         <v>161</v>
@@ -41482,7 +41506,7 @@
     </row>
     <row r="1329">
       <c r="A1329" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1329" t="s">
         <v>8</v>
@@ -41491,13 +41515,13 @@
         <v>339</v>
       </c>
       <c r="D1329" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="E1329" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="F1329" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="G1329" t="s">
         <v>161</v>
@@ -41505,7 +41529,7 @@
     </row>
     <row r="1330">
       <c r="A1330" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1330" t="s">
         <v>8</v>
@@ -41514,21 +41538,21 @@
         <v>339</v>
       </c>
       <c r="D1330" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="E1330" t="s">
-        <v>353</v>
+        <v>3129</v>
       </c>
       <c r="F1330" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="G1330" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1331" t="s">
         <v>8</v>
@@ -41537,13 +41561,13 @@
         <v>339</v>
       </c>
       <c r="D1331" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="E1331" t="s">
-        <v>1004</v>
+        <v>353</v>
       </c>
       <c r="F1331" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="G1331" t="s">
         <v>209</v>
@@ -41551,7 +41575,7 @@
     </row>
     <row r="1332">
       <c r="A1332" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1332" t="s">
         <v>8</v>
@@ -41560,13 +41584,13 @@
         <v>339</v>
       </c>
       <c r="D1332" t="s">
-        <v>2976</v>
+        <v>3133</v>
       </c>
       <c r="E1332" t="s">
-        <v>959</v>
+        <v>1004</v>
       </c>
       <c r="F1332" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="G1332" t="s">
         <v>209</v>
@@ -41574,7 +41598,7 @@
     </row>
     <row r="1333">
       <c r="A1333" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1333" t="s">
         <v>8</v>
@@ -41583,13 +41607,13 @@
         <v>339</v>
       </c>
       <c r="D1333" t="s">
-        <v>3132</v>
+        <v>2980</v>
       </c>
       <c r="E1333" t="s">
-        <v>3133</v>
+        <v>959</v>
       </c>
       <c r="F1333" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="G1333" t="s">
         <v>209</v>
@@ -41597,7 +41621,7 @@
     </row>
     <row r="1334">
       <c r="A1334" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1334" t="s">
         <v>8</v>
@@ -41606,13 +41630,13 @@
         <v>339</v>
       </c>
       <c r="D1334" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E1334" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="F1334" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="G1334" t="s">
         <v>209</v>
@@ -41620,7 +41644,7 @@
     </row>
     <row r="1335">
       <c r="A1335" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1335" t="s">
         <v>8</v>
@@ -41629,13 +41653,13 @@
         <v>339</v>
       </c>
       <c r="D1335" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E1335" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="F1335" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="G1335" t="s">
         <v>209</v>
@@ -41643,7 +41667,7 @@
     </row>
     <row r="1336">
       <c r="A1336" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1336" t="s">
         <v>8</v>
@@ -41652,13 +41676,13 @@
         <v>339</v>
       </c>
       <c r="D1336" t="s">
-        <v>2938</v>
+        <v>3142</v>
       </c>
       <c r="E1336" t="s">
-        <v>2939</v>
+        <v>3143</v>
       </c>
       <c r="F1336" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="G1336" t="s">
         <v>209</v>
@@ -41666,7 +41690,7 @@
     </row>
     <row r="1337">
       <c r="A1337" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1337" t="s">
         <v>8</v>
@@ -41675,13 +41699,13 @@
         <v>339</v>
       </c>
       <c r="D1337" t="s">
-        <v>3142</v>
+        <v>2942</v>
       </c>
       <c r="E1337" t="s">
-        <v>3143</v>
+        <v>2943</v>
       </c>
       <c r="F1337" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="G1337" t="s">
         <v>209</v>
@@ -41689,7 +41713,7 @@
     </row>
     <row r="1338">
       <c r="A1338" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1338" t="s">
         <v>8</v>
@@ -41698,13 +41722,13 @@
         <v>339</v>
       </c>
       <c r="D1338" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="E1338" t="s">
-        <v>2078</v>
+        <v>3147</v>
       </c>
       <c r="F1338" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="G1338" t="s">
         <v>209</v>
@@ -41712,7 +41736,7 @@
     </row>
     <row r="1339">
       <c r="A1339" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1339" t="s">
         <v>8</v>
@@ -41721,13 +41745,13 @@
         <v>339</v>
       </c>
       <c r="D1339" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="E1339" t="s">
-        <v>3148</v>
+        <v>2078</v>
       </c>
       <c r="F1339" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="G1339" t="s">
         <v>209</v>
@@ -41735,7 +41759,7 @@
     </row>
     <row r="1340">
       <c r="A1340" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1340" t="s">
         <v>8</v>
@@ -41744,13 +41768,13 @@
         <v>339</v>
       </c>
       <c r="D1340" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E1340" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="F1340" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="G1340" t="s">
         <v>209</v>
@@ -41758,7 +41782,7 @@
     </row>
     <row r="1341">
       <c r="A1341" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1341" t="s">
         <v>8</v>
@@ -41767,13 +41791,13 @@
         <v>339</v>
       </c>
       <c r="D1341" t="s">
-        <v>937</v>
+        <v>3154</v>
       </c>
       <c r="E1341" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="F1341" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="G1341" t="s">
         <v>209</v>
@@ -41781,7 +41805,7 @@
     </row>
     <row r="1342">
       <c r="A1342" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1342" t="s">
         <v>8</v>
@@ -41790,13 +41814,13 @@
         <v>339</v>
       </c>
       <c r="D1342" t="s">
-        <v>3155</v>
+        <v>937</v>
       </c>
       <c r="E1342" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="F1342" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="G1342" t="s">
         <v>209</v>
@@ -41804,7 +41828,7 @@
     </row>
     <row r="1343">
       <c r="A1343" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1343" t="s">
         <v>8</v>
@@ -41813,13 +41837,13 @@
         <v>339</v>
       </c>
       <c r="D1343" t="s">
-        <v>2949</v>
+        <v>3159</v>
       </c>
       <c r="E1343" t="s">
-        <v>2950</v>
+        <v>3160</v>
       </c>
       <c r="F1343" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="G1343" t="s">
         <v>209</v>
@@ -41827,7 +41851,7 @@
     </row>
     <row r="1344">
       <c r="A1344" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1344" t="s">
         <v>8</v>
@@ -41836,13 +41860,13 @@
         <v>339</v>
       </c>
       <c r="D1344" t="s">
-        <v>3159</v>
+        <v>2953</v>
       </c>
       <c r="E1344" t="s">
-        <v>3160</v>
+        <v>2954</v>
       </c>
       <c r="F1344" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="G1344" t="s">
         <v>209</v>
@@ -41850,7 +41874,7 @@
     </row>
     <row r="1345">
       <c r="A1345" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1345" t="s">
         <v>8</v>
@@ -41859,13 +41883,13 @@
         <v>339</v>
       </c>
       <c r="D1345" t="s">
-        <v>2894</v>
+        <v>3163</v>
       </c>
       <c r="E1345" t="s">
-        <v>2895</v>
+        <v>3164</v>
       </c>
       <c r="F1345" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="G1345" t="s">
         <v>209</v>
@@ -41873,7 +41897,7 @@
     </row>
     <row r="1346">
       <c r="A1346" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1346" t="s">
         <v>8</v>
@@ -41882,13 +41906,13 @@
         <v>339</v>
       </c>
       <c r="D1346" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="E1346" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="F1346" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="G1346" t="s">
         <v>209</v>
@@ -41896,7 +41920,7 @@
     </row>
     <row r="1347">
       <c r="A1347" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1347" t="s">
         <v>8</v>
@@ -41905,13 +41929,13 @@
         <v>339</v>
       </c>
       <c r="D1347" t="s">
-        <v>3124</v>
+        <v>2901</v>
       </c>
       <c r="E1347" t="s">
-        <v>3125</v>
+        <v>2902</v>
       </c>
       <c r="F1347" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="G1347" t="s">
         <v>209</v>
@@ -41919,7 +41943,7 @@
     </row>
     <row r="1348">
       <c r="A1348" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1348" t="s">
         <v>8</v>
@@ -41928,13 +41952,13 @@
         <v>339</v>
       </c>
       <c r="D1348" t="s">
-        <v>3165</v>
+        <v>3128</v>
       </c>
       <c r="E1348" t="s">
-        <v>3166</v>
+        <v>3129</v>
       </c>
       <c r="F1348" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="G1348" t="s">
         <v>209</v>
@@ -41942,30 +41966,30 @@
     </row>
     <row r="1349">
       <c r="A1349" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1349" t="s">
         <v>8</v>
       </c>
       <c r="C1349" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="D1349" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="E1349" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="F1349" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="G1349" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1350" t="s">
         <v>8</v>
@@ -41974,13 +41998,13 @@
         <v>306</v>
       </c>
       <c r="D1350" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="E1350" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="F1350" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="G1350" t="s">
         <v>13</v>
@@ -41988,7 +42012,7 @@
     </row>
     <row r="1351">
       <c r="A1351" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1351" t="s">
         <v>8</v>
@@ -41997,13 +42021,13 @@
         <v>306</v>
       </c>
       <c r="D1351" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="E1351" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="F1351" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="G1351" t="s">
         <v>13</v>
@@ -42011,7 +42035,7 @@
     </row>
     <row r="1352">
       <c r="A1352" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1352" t="s">
         <v>8</v>
@@ -42020,13 +42044,13 @@
         <v>306</v>
       </c>
       <c r="D1352" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="E1352" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="F1352" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="G1352" t="s">
         <v>13</v>
@@ -42034,7 +42058,7 @@
     </row>
     <row r="1353">
       <c r="A1353" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1353" t="s">
         <v>8</v>
@@ -42043,13 +42067,13 @@
         <v>306</v>
       </c>
       <c r="D1353" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="E1353" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="F1353" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="G1353" t="s">
         <v>13</v>
@@ -42057,7 +42081,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1354" t="s">
         <v>8</v>
@@ -42066,13 +42090,13 @@
         <v>306</v>
       </c>
       <c r="D1354" t="s">
-        <v>2271</v>
+        <v>3184</v>
       </c>
       <c r="E1354" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="F1354" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="G1354" t="s">
         <v>13</v>
@@ -42080,7 +42104,7 @@
     </row>
     <row r="1355">
       <c r="A1355" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1355" t="s">
         <v>8</v>
@@ -42089,13 +42113,13 @@
         <v>306</v>
       </c>
       <c r="D1355" t="s">
-        <v>3185</v>
+        <v>2271</v>
       </c>
       <c r="E1355" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="F1355" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="G1355" t="s">
         <v>13</v>
@@ -42103,7 +42127,7 @@
     </row>
     <row r="1356">
       <c r="A1356" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1356" t="s">
         <v>8</v>
@@ -42112,13 +42136,13 @@
         <v>306</v>
       </c>
       <c r="D1356" t="s">
-        <v>1159</v>
+        <v>3189</v>
       </c>
       <c r="E1356" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="F1356" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="G1356" t="s">
         <v>13</v>
@@ -42126,7 +42150,7 @@
     </row>
     <row r="1357">
       <c r="A1357" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1357" t="s">
         <v>8</v>
@@ -42135,13 +42159,13 @@
         <v>306</v>
       </c>
       <c r="D1357" t="s">
-        <v>3190</v>
+        <v>1159</v>
       </c>
       <c r="E1357" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="F1357" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="G1357" t="s">
         <v>13</v>
@@ -42149,7 +42173,7 @@
     </row>
     <row r="1358">
       <c r="A1358" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1358" t="s">
         <v>8</v>
@@ -42158,13 +42182,13 @@
         <v>306</v>
       </c>
       <c r="D1358" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="E1358" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="F1358" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="G1358" t="s">
         <v>13</v>
@@ -42172,7 +42196,7 @@
     </row>
     <row r="1359">
       <c r="A1359" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1359" t="s">
         <v>8</v>
@@ -42181,13 +42205,13 @@
         <v>306</v>
       </c>
       <c r="D1359" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="E1359" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="F1359" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="G1359" t="s">
         <v>13</v>
@@ -42195,7 +42219,7 @@
     </row>
     <row r="1360">
       <c r="A1360" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1360" t="s">
         <v>8</v>
@@ -42204,13 +42228,13 @@
         <v>306</v>
       </c>
       <c r="D1360" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E1360" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="F1360" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="G1360" t="s">
         <v>13</v>
@@ -42218,7 +42242,7 @@
     </row>
     <row r="1361">
       <c r="A1361" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1361" t="s">
         <v>8</v>
@@ -42227,13 +42251,13 @@
         <v>306</v>
       </c>
       <c r="D1361" t="s">
-        <v>1109</v>
+        <v>3203</v>
       </c>
       <c r="E1361" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="F1361" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="G1361" t="s">
         <v>13</v>
@@ -42241,7 +42265,7 @@
     </row>
     <row r="1362">
       <c r="A1362" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1362" t="s">
         <v>8</v>
@@ -42250,13 +42274,13 @@
         <v>306</v>
       </c>
       <c r="D1362" t="s">
-        <v>3204</v>
+        <v>1109</v>
       </c>
       <c r="E1362" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="F1362" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="G1362" t="s">
         <v>13</v>
@@ -42264,7 +42288,7 @@
     </row>
     <row r="1363">
       <c r="A1363" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1363" t="s">
         <v>8</v>
@@ -42273,13 +42297,13 @@
         <v>306</v>
       </c>
       <c r="D1363" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="E1363" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="F1363" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="G1363" t="s">
         <v>13</v>
@@ -42287,7 +42311,7 @@
     </row>
     <row r="1364">
       <c r="A1364" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1364" t="s">
         <v>8</v>
@@ -42296,13 +42320,13 @@
         <v>306</v>
       </c>
       <c r="D1364" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="E1364" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="F1364" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="G1364" t="s">
         <v>13</v>
@@ -42310,7 +42334,7 @@
     </row>
     <row r="1365">
       <c r="A1365" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1365" t="s">
         <v>8</v>
@@ -42319,13 +42343,13 @@
         <v>306</v>
       </c>
       <c r="D1365" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="E1365" t="s">
-        <v>2127</v>
+        <v>3215</v>
       </c>
       <c r="F1365" t="s">
-        <v>3214</v>
+        <v>3216</v>
       </c>
       <c r="G1365" t="s">
         <v>13</v>
@@ -42333,7 +42357,7 @@
     </row>
     <row r="1366">
       <c r="A1366" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1366" t="s">
         <v>8</v>
@@ -42342,13 +42366,13 @@
         <v>306</v>
       </c>
       <c r="D1366" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="E1366" t="s">
-        <v>3216</v>
+        <v>2127</v>
       </c>
       <c r="F1366" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="G1366" t="s">
         <v>13</v>
@@ -42356,7 +42380,7 @@
     </row>
     <row r="1367">
       <c r="A1367" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1367" t="s">
         <v>8</v>
@@ -42365,13 +42389,13 @@
         <v>306</v>
       </c>
       <c r="D1367" t="s">
-        <v>1006</v>
+        <v>3219</v>
       </c>
       <c r="E1367" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="F1367" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
       <c r="G1367" t="s">
         <v>13</v>
@@ -42379,7 +42403,7 @@
     </row>
     <row r="1368">
       <c r="A1368" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1368" t="s">
         <v>8</v>
@@ -42388,13 +42412,13 @@
         <v>306</v>
       </c>
       <c r="D1368" t="s">
-        <v>3220</v>
+        <v>1006</v>
       </c>
       <c r="E1368" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="F1368" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="G1368" t="s">
         <v>13</v>
@@ -42402,7 +42426,7 @@
     </row>
     <row r="1369">
       <c r="A1369" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1369" t="s">
         <v>8</v>
@@ -42411,13 +42435,13 @@
         <v>306</v>
       </c>
       <c r="D1369" t="s">
-        <v>319</v>
+        <v>3224</v>
       </c>
       <c r="E1369" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="F1369" t="s">
-        <v>3224</v>
+        <v>3226</v>
       </c>
       <c r="G1369" t="s">
         <v>13</v>
@@ -42425,7 +42449,7 @@
     </row>
     <row r="1370">
       <c r="A1370" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1370" t="s">
         <v>8</v>
@@ -42434,13 +42458,13 @@
         <v>306</v>
       </c>
       <c r="D1370" t="s">
-        <v>3225</v>
+        <v>319</v>
       </c>
       <c r="E1370" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="F1370" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="G1370" t="s">
         <v>13</v>
@@ -42448,7 +42472,7 @@
     </row>
     <row r="1371">
       <c r="A1371" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1371" t="s">
         <v>8</v>
@@ -42457,21 +42481,21 @@
         <v>306</v>
       </c>
       <c r="D1371" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="E1371" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="F1371" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="G1371" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1372" t="s">
         <v>8</v>
@@ -42480,13 +42504,13 @@
         <v>306</v>
       </c>
       <c r="D1372" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E1372" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="F1372" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="G1372" t="s">
         <v>69</v>
@@ -42494,7 +42518,7 @@
     </row>
     <row r="1373">
       <c r="A1373" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1373" t="s">
         <v>8</v>
@@ -42503,13 +42527,13 @@
         <v>306</v>
       </c>
       <c r="D1373" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="E1373" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="F1373" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="G1373" t="s">
         <v>69</v>
@@ -42517,7 +42541,7 @@
     </row>
     <row r="1374">
       <c r="A1374" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1374" t="s">
         <v>8</v>
@@ -42526,13 +42550,13 @@
         <v>306</v>
       </c>
       <c r="D1374" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="E1374" t="s">
-        <v>3122</v>
+        <v>3239</v>
       </c>
       <c r="F1374" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="G1374" t="s">
         <v>69</v>
@@ -42540,7 +42564,7 @@
     </row>
     <row r="1375">
       <c r="A1375" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1375" t="s">
         <v>8</v>
@@ -42549,13 +42573,13 @@
         <v>306</v>
       </c>
       <c r="D1375" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
       <c r="E1375" t="s">
-        <v>3240</v>
+        <v>3126</v>
       </c>
       <c r="F1375" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="G1375" t="s">
         <v>69</v>
@@ -42563,7 +42587,7 @@
     </row>
     <row r="1376">
       <c r="A1376" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1376" t="s">
         <v>8</v>
@@ -42572,13 +42596,13 @@
         <v>306</v>
       </c>
       <c r="D1376" t="s">
-        <v>2150</v>
+        <v>3243</v>
       </c>
       <c r="E1376" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="F1376" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="G1376" t="s">
         <v>69</v>
@@ -42586,7 +42610,7 @@
     </row>
     <row r="1377">
       <c r="A1377" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1377" t="s">
         <v>8</v>
@@ -42595,21 +42619,21 @@
         <v>306</v>
       </c>
       <c r="D1377" t="s">
-        <v>3244</v>
+        <v>2150</v>
       </c>
       <c r="E1377" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="F1377" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="G1377" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1378" t="s">
         <v>8</v>
@@ -42618,13 +42642,13 @@
         <v>306</v>
       </c>
       <c r="D1378" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E1378" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="F1378" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="G1378" t="s">
         <v>142</v>
@@ -42632,7 +42656,7 @@
     </row>
     <row r="1379">
       <c r="A1379" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1379" t="s">
         <v>8</v>
@@ -42641,21 +42665,21 @@
         <v>306</v>
       </c>
       <c r="D1379" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="E1379" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="F1379" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="G1379" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1380" t="s">
         <v>8</v>
@@ -42664,13 +42688,13 @@
         <v>306</v>
       </c>
       <c r="D1380" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E1380" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="F1380" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="G1380" t="s">
         <v>149</v>
@@ -42678,7 +42702,7 @@
     </row>
     <row r="1381">
       <c r="A1381" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1381" t="s">
         <v>8</v>
@@ -42687,13 +42711,13 @@
         <v>306</v>
       </c>
       <c r="D1381" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="E1381" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="F1381" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="G1381" t="s">
         <v>149</v>
@@ -42701,7 +42725,7 @@
     </row>
     <row r="1382">
       <c r="A1382" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1382" t="s">
         <v>8</v>
@@ -42710,13 +42734,13 @@
         <v>306</v>
       </c>
       <c r="D1382" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E1382" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="F1382" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="G1382" t="s">
         <v>149</v>
@@ -42724,7 +42748,7 @@
     </row>
     <row r="1383">
       <c r="A1383" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1383" t="s">
         <v>8</v>
@@ -42733,13 +42757,13 @@
         <v>306</v>
       </c>
       <c r="D1383" t="s">
-        <v>1103</v>
+        <v>3263</v>
       </c>
       <c r="E1383" t="s">
-        <v>3262</v>
+        <v>3264</v>
       </c>
       <c r="F1383" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="G1383" t="s">
         <v>149</v>
@@ -42747,7 +42771,7 @@
     </row>
     <row r="1384">
       <c r="A1384" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1384" t="s">
         <v>8</v>
@@ -42756,13 +42780,13 @@
         <v>306</v>
       </c>
       <c r="D1384" t="s">
-        <v>3147</v>
+        <v>1103</v>
       </c>
       <c r="E1384" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="F1384" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="G1384" t="s">
         <v>149</v>
@@ -42770,7 +42794,7 @@
     </row>
     <row r="1385">
       <c r="A1385" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1385" t="s">
         <v>8</v>
@@ -42779,13 +42803,13 @@
         <v>306</v>
       </c>
       <c r="D1385" t="s">
-        <v>3266</v>
+        <v>3151</v>
       </c>
       <c r="E1385" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="F1385" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="G1385" t="s">
         <v>149</v>
@@ -42793,7 +42817,7 @@
     </row>
     <row r="1386">
       <c r="A1386" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1386" t="s">
         <v>8</v>
@@ -42802,13 +42826,13 @@
         <v>306</v>
       </c>
       <c r="D1386" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="E1386" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="F1386" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="G1386" t="s">
         <v>149</v>
@@ -42816,7 +42840,7 @@
     </row>
     <row r="1387">
       <c r="A1387" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1387" t="s">
         <v>8</v>
@@ -42831,7 +42855,7 @@
         <v>3271</v>
       </c>
       <c r="F1387" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="G1387" t="s">
         <v>149</v>
@@ -42839,7 +42863,7 @@
     </row>
     <row r="1388">
       <c r="A1388" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1388" t="s">
         <v>8</v>
@@ -42848,13 +42872,13 @@
         <v>306</v>
       </c>
       <c r="D1388" t="s">
-        <v>3039</v>
+        <v>3274</v>
       </c>
       <c r="E1388" t="s">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="F1388" t="s">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="G1388" t="s">
         <v>149</v>
@@ -42862,7 +42886,7 @@
     </row>
     <row r="1389">
       <c r="A1389" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1389" t="s">
         <v>8</v>
@@ -42871,13 +42895,13 @@
         <v>306</v>
       </c>
       <c r="D1389" t="s">
-        <v>3275</v>
+        <v>3043</v>
       </c>
       <c r="E1389" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="F1389" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="G1389" t="s">
         <v>149</v>
@@ -42885,7 +42909,7 @@
     </row>
     <row r="1390">
       <c r="A1390" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1390" t="s">
         <v>8</v>
@@ -42894,13 +42918,13 @@
         <v>306</v>
       </c>
       <c r="D1390" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="E1390" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="F1390" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="G1390" t="s">
         <v>149</v>
@@ -42908,7 +42932,7 @@
     </row>
     <row r="1391">
       <c r="A1391" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1391" t="s">
         <v>8</v>
@@ -42917,13 +42941,13 @@
         <v>306</v>
       </c>
       <c r="D1391" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="E1391" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="F1391" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="G1391" t="s">
         <v>149</v>
@@ -42931,7 +42955,7 @@
     </row>
     <row r="1392">
       <c r="A1392" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1392" t="s">
         <v>8</v>
@@ -42940,13 +42964,13 @@
         <v>306</v>
       </c>
       <c r="D1392" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="E1392" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="F1392" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="G1392" t="s">
         <v>149</v>
@@ -42954,7 +42978,7 @@
     </row>
     <row r="1393">
       <c r="A1393" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1393" t="s">
         <v>8</v>
@@ -42963,13 +42987,13 @@
         <v>306</v>
       </c>
       <c r="D1393" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1393" t="s">
-        <v>2924</v>
+        <v>3289</v>
       </c>
       <c r="F1393" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="G1393" t="s">
         <v>149</v>
@@ -42977,7 +43001,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1394" t="s">
         <v>8</v>
@@ -42986,13 +43010,13 @@
         <v>306</v>
       </c>
       <c r="D1394" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="E1394" t="s">
-        <v>3290</v>
+        <v>2928</v>
       </c>
       <c r="F1394" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="G1394" t="s">
         <v>149</v>
@@ -43000,7 +43024,7 @@
     </row>
     <row r="1395">
       <c r="A1395" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1395" t="s">
         <v>8</v>
@@ -43009,13 +43033,13 @@
         <v>306</v>
       </c>
       <c r="D1395" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="E1395" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="F1395" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="G1395" t="s">
         <v>149</v>
@@ -43023,7 +43047,7 @@
     </row>
     <row r="1396">
       <c r="A1396" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1396" t="s">
         <v>8</v>
@@ -43032,13 +43056,13 @@
         <v>306</v>
       </c>
       <c r="D1396" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="E1396" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="F1396" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="G1396" t="s">
         <v>149</v>
@@ -43046,7 +43070,7 @@
     </row>
     <row r="1397">
       <c r="A1397" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1397" t="s">
         <v>8</v>
@@ -43055,13 +43079,13 @@
         <v>306</v>
       </c>
       <c r="D1397" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="E1397" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="F1397" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="G1397" t="s">
         <v>149</v>
@@ -43069,7 +43093,7 @@
     </row>
     <row r="1398">
       <c r="A1398" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1398" t="s">
         <v>8</v>
@@ -43078,13 +43102,13 @@
         <v>306</v>
       </c>
       <c r="D1398" t="s">
-        <v>1085</v>
+        <v>3302</v>
       </c>
       <c r="E1398" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="F1398" t="s">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="G1398" t="s">
         <v>149</v>
@@ -43092,7 +43116,7 @@
     </row>
     <row r="1399">
       <c r="A1399" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1399" t="s">
         <v>8</v>
@@ -43101,21 +43125,21 @@
         <v>306</v>
       </c>
       <c r="D1399" t="s">
-        <v>3303</v>
+        <v>1085</v>
       </c>
       <c r="E1399" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="F1399" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="G1399" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1400" t="s">
         <v>8</v>
@@ -43124,13 +43148,13 @@
         <v>306</v>
       </c>
       <c r="D1400" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="E1400" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="F1400" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="G1400" t="s">
         <v>161</v>
@@ -43138,7 +43162,7 @@
     </row>
     <row r="1401">
       <c r="A1401" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1401" t="s">
         <v>8</v>
@@ -43147,13 +43171,13 @@
         <v>306</v>
       </c>
       <c r="D1401" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E1401" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="F1401" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="G1401" t="s">
         <v>161</v>
@@ -43161,7 +43185,7 @@
     </row>
     <row r="1402">
       <c r="A1402" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1402" t="s">
         <v>8</v>
@@ -43170,13 +43194,13 @@
         <v>306</v>
       </c>
       <c r="D1402" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="E1402" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="F1402" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="G1402" t="s">
         <v>161</v>
@@ -43184,7 +43208,7 @@
     </row>
     <row r="1403">
       <c r="A1403" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1403" t="s">
         <v>8</v>
@@ -43193,13 +43217,13 @@
         <v>306</v>
       </c>
       <c r="D1403" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="E1403" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="F1403" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="G1403" t="s">
         <v>161</v>
@@ -43207,7 +43231,7 @@
     </row>
     <row r="1404">
       <c r="A1404" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1404" t="s">
         <v>8</v>
@@ -43216,13 +43240,13 @@
         <v>306</v>
       </c>
       <c r="D1404" t="s">
-        <v>1103</v>
+        <v>3319</v>
       </c>
       <c r="E1404" t="s">
-        <v>3262</v>
+        <v>3320</v>
       </c>
       <c r="F1404" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="G1404" t="s">
         <v>161</v>
@@ -43230,7 +43254,7 @@
     </row>
     <row r="1405">
       <c r="A1405" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1405" t="s">
         <v>8</v>
@@ -43239,13 +43263,13 @@
         <v>306</v>
       </c>
       <c r="D1405" t="s">
-        <v>3319</v>
+        <v>1103</v>
       </c>
       <c r="E1405" t="s">
-        <v>3320</v>
+        <v>3266</v>
       </c>
       <c r="F1405" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="G1405" t="s">
         <v>161</v>
@@ -43253,7 +43277,7 @@
     </row>
     <row r="1406">
       <c r="A1406" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1406" t="s">
         <v>8</v>
@@ -43262,13 +43286,13 @@
         <v>306</v>
       </c>
       <c r="D1406" t="s">
-        <v>617</v>
+        <v>3323</v>
       </c>
       <c r="E1406" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="F1406" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="G1406" t="s">
         <v>161</v>
@@ -43276,7 +43300,7 @@
     </row>
     <row r="1407">
       <c r="A1407" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1407" t="s">
         <v>8</v>
@@ -43285,13 +43309,13 @@
         <v>306</v>
       </c>
       <c r="D1407" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
       <c r="E1407" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="F1407" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="G1407" t="s">
         <v>161</v>
@@ -43299,7 +43323,7 @@
     </row>
     <row r="1408">
       <c r="A1408" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1408" t="s">
         <v>8</v>
@@ -43308,13 +43332,13 @@
         <v>306</v>
       </c>
       <c r="D1408" t="s">
-        <v>3326</v>
+        <v>556</v>
       </c>
       <c r="E1408" t="s">
-        <v>1010</v>
+        <v>3328</v>
       </c>
       <c r="F1408" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="G1408" t="s">
         <v>161</v>
@@ -43322,7 +43346,7 @@
     </row>
     <row r="1409">
       <c r="A1409" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1409" t="s">
         <v>8</v>
@@ -43331,13 +43355,13 @@
         <v>306</v>
       </c>
       <c r="D1409" t="s">
-        <v>492</v>
+        <v>3330</v>
       </c>
       <c r="E1409" t="s">
-        <v>3328</v>
+        <v>1010</v>
       </c>
       <c r="F1409" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="G1409" t="s">
         <v>161</v>
@@ -43345,7 +43369,7 @@
     </row>
     <row r="1410">
       <c r="A1410" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1410" t="s">
         <v>8</v>
@@ -43354,13 +43378,13 @@
         <v>306</v>
       </c>
       <c r="D1410" t="s">
-        <v>3330</v>
+        <v>492</v>
       </c>
       <c r="E1410" t="s">
-        <v>2901</v>
+        <v>3332</v>
       </c>
       <c r="F1410" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="G1410" t="s">
         <v>161</v>
@@ -43368,7 +43392,7 @@
     </row>
     <row r="1411">
       <c r="A1411" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1411" t="s">
         <v>8</v>
@@ -43377,13 +43401,13 @@
         <v>306</v>
       </c>
       <c r="D1411" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="E1411" t="s">
-        <v>3333</v>
+        <v>2905</v>
       </c>
       <c r="F1411" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="G1411" t="s">
         <v>161</v>
@@ -43391,7 +43415,7 @@
     </row>
     <row r="1412">
       <c r="A1412" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1412" t="s">
         <v>8</v>
@@ -43400,13 +43424,13 @@
         <v>306</v>
       </c>
       <c r="D1412" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="E1412" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="F1412" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="G1412" t="s">
         <v>161</v>
@@ -43414,7 +43438,7 @@
     </row>
     <row r="1413">
       <c r="A1413" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1413" t="s">
         <v>8</v>
@@ -43423,13 +43447,13 @@
         <v>306</v>
       </c>
       <c r="D1413" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="E1413" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="F1413" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="G1413" t="s">
         <v>161</v>
@@ -43437,7 +43461,7 @@
     </row>
     <row r="1414">
       <c r="A1414" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1414" t="s">
         <v>8</v>
@@ -43446,13 +43470,13 @@
         <v>306</v>
       </c>
       <c r="D1414" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="E1414" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="F1414" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="G1414" t="s">
         <v>161</v>
@@ -43460,7 +43484,7 @@
     </row>
     <row r="1415">
       <c r="A1415" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1415" t="s">
         <v>8</v>
@@ -43469,13 +43493,13 @@
         <v>306</v>
       </c>
       <c r="D1415" t="s">
-        <v>2531</v>
+        <v>3345</v>
       </c>
       <c r="E1415" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="F1415" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="G1415" t="s">
         <v>161</v>
@@ -43483,7 +43507,7 @@
     </row>
     <row r="1416">
       <c r="A1416" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1416" t="s">
         <v>8</v>
@@ -43495,10 +43519,10 @@
         <v>2531</v>
       </c>
       <c r="E1416" t="s">
-        <v>3344</v>
+        <v>3348</v>
       </c>
       <c r="F1416" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="G1416" t="s">
         <v>161</v>
@@ -43506,7 +43530,7 @@
     </row>
     <row r="1417">
       <c r="A1417" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1417" t="s">
         <v>8</v>
@@ -43515,13 +43539,13 @@
         <v>306</v>
       </c>
       <c r="D1417" t="s">
-        <v>3347</v>
+        <v>2531</v>
       </c>
       <c r="E1417" t="s">
         <v>3348</v>
       </c>
       <c r="F1417" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="G1417" t="s">
         <v>161</v>
@@ -43529,7 +43553,7 @@
     </row>
     <row r="1418">
       <c r="A1418" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1418" t="s">
         <v>8</v>
@@ -43538,13 +43562,13 @@
         <v>306</v>
       </c>
       <c r="D1418" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="E1418" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="F1418" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="G1418" t="s">
         <v>161</v>
@@ -43552,7 +43576,7 @@
     </row>
     <row r="1419">
       <c r="A1419" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1419" t="s">
         <v>8</v>
@@ -43561,13 +43585,13 @@
         <v>306</v>
       </c>
       <c r="D1419" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1419" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="F1419" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="G1419" t="s">
         <v>161</v>
@@ -43575,7 +43599,7 @@
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1420" t="s">
         <v>8</v>
@@ -43584,13 +43608,13 @@
         <v>306</v>
       </c>
       <c r="D1420" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="E1420" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="F1420" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="G1420" t="s">
         <v>161</v>
@@ -43598,7 +43622,7 @@
     </row>
     <row r="1421">
       <c r="A1421" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1421" t="s">
         <v>8</v>
@@ -43607,13 +43631,13 @@
         <v>306</v>
       </c>
       <c r="D1421" t="s">
-        <v>2985</v>
+        <v>3360</v>
       </c>
       <c r="E1421" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="F1421" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="G1421" t="s">
         <v>161</v>
@@ -43621,7 +43645,7 @@
     </row>
     <row r="1422">
       <c r="A1422" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1422" t="s">
         <v>8</v>
@@ -43630,21 +43654,21 @@
         <v>306</v>
       </c>
       <c r="D1422" t="s">
-        <v>3174</v>
+        <v>2989</v>
       </c>
       <c r="E1422" t="s">
-        <v>3175</v>
+        <v>3363</v>
       </c>
       <c r="F1422" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="G1422" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1423" t="s">
         <v>8</v>
@@ -43653,13 +43677,13 @@
         <v>306</v>
       </c>
       <c r="D1423" t="s">
-        <v>3362</v>
+        <v>3178</v>
       </c>
       <c r="E1423" t="s">
-        <v>2411</v>
+        <v>3179</v>
       </c>
       <c r="F1423" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="G1423" t="s">
         <v>209</v>
@@ -43667,7 +43691,7 @@
     </row>
     <row r="1424">
       <c r="A1424" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1424" t="s">
         <v>8</v>
@@ -43676,13 +43700,13 @@
         <v>306</v>
       </c>
       <c r="D1424" t="s">
-        <v>3259</v>
+        <v>3366</v>
       </c>
       <c r="E1424" t="s">
-        <v>3364</v>
+        <v>2411</v>
       </c>
       <c r="F1424" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="G1424" t="s">
         <v>209</v>
@@ -43690,7 +43714,7 @@
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1425" t="s">
         <v>8</v>
@@ -43699,13 +43723,13 @@
         <v>306</v>
       </c>
       <c r="D1425" t="s">
-        <v>3366</v>
+        <v>3263</v>
       </c>
       <c r="E1425" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="F1425" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="G1425" t="s">
         <v>209</v>
@@ -43713,7 +43737,7 @@
     </row>
     <row r="1426">
       <c r="A1426" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1426" t="s">
         <v>8</v>
@@ -43722,13 +43746,13 @@
         <v>306</v>
       </c>
       <c r="D1426" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="E1426" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="F1426" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="G1426" t="s">
         <v>209</v>
@@ -43736,7 +43760,7 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1427" t="s">
         <v>8</v>
@@ -43745,13 +43769,13 @@
         <v>306</v>
       </c>
       <c r="D1427" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="E1427" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="F1427" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="G1427" t="s">
         <v>209</v>
@@ -43759,7 +43783,7 @@
     </row>
     <row r="1428">
       <c r="A1428" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1428" t="s">
         <v>8</v>
@@ -43768,13 +43792,13 @@
         <v>306</v>
       </c>
       <c r="D1428" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="E1428" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="F1428" t="s">
-        <v>2824</v>
+        <v>3378</v>
       </c>
       <c r="G1428" t="s">
         <v>209</v>
@@ -43782,7 +43806,7 @@
     </row>
     <row r="1429">
       <c r="A1429" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1429" t="s">
         <v>8</v>
@@ -43791,13 +43815,13 @@
         <v>306</v>
       </c>
       <c r="D1429" t="s">
-        <v>2074</v>
+        <v>3379</v>
       </c>
       <c r="E1429" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="F1429" t="s">
-        <v>3378</v>
+        <v>2824</v>
       </c>
       <c r="G1429" t="s">
         <v>209</v>
@@ -43805,7 +43829,7 @@
     </row>
     <row r="1430">
       <c r="A1430" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1430" t="s">
         <v>8</v>
@@ -43814,13 +43838,13 @@
         <v>306</v>
       </c>
       <c r="D1430" t="s">
-        <v>3379</v>
+        <v>2074</v>
       </c>
       <c r="E1430" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="F1430" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="G1430" t="s">
         <v>209</v>
@@ -43828,7 +43852,7 @@
     </row>
     <row r="1431">
       <c r="A1431" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1431" t="s">
         <v>8</v>
@@ -43837,13 +43861,13 @@
         <v>306</v>
       </c>
       <c r="D1431" t="s">
-        <v>2668</v>
+        <v>3383</v>
       </c>
       <c r="E1431" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="F1431" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="G1431" t="s">
         <v>209</v>
@@ -43851,7 +43875,7 @@
     </row>
     <row r="1432">
       <c r="A1432" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1432" t="s">
         <v>8</v>
@@ -43860,13 +43884,13 @@
         <v>306</v>
       </c>
       <c r="D1432" t="s">
-        <v>3384</v>
+        <v>2668</v>
       </c>
       <c r="E1432" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F1432" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="G1432" t="s">
         <v>209</v>
@@ -43874,7 +43898,7 @@
     </row>
     <row r="1433">
       <c r="A1433" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1433" t="s">
         <v>8</v>
@@ -43883,13 +43907,13 @@
         <v>306</v>
       </c>
       <c r="D1433" t="s">
-        <v>997</v>
+        <v>3388</v>
       </c>
       <c r="E1433" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="F1433" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="G1433" t="s">
         <v>209</v>
@@ -43897,7 +43921,7 @@
     </row>
     <row r="1434">
       <c r="A1434" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1434" t="s">
         <v>8</v>
@@ -43906,13 +43930,13 @@
         <v>306</v>
       </c>
       <c r="D1434" t="s">
-        <v>2952</v>
+        <v>997</v>
       </c>
       <c r="E1434" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="F1434" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="G1434" t="s">
         <v>209</v>
@@ -43920,7 +43944,7 @@
     </row>
     <row r="1435">
       <c r="A1435" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1435" t="s">
         <v>8</v>
@@ -43929,13 +43953,13 @@
         <v>306</v>
       </c>
       <c r="D1435" t="s">
-        <v>3391</v>
+        <v>2956</v>
       </c>
       <c r="E1435" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="F1435" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="G1435" t="s">
         <v>209</v>
@@ -43943,7 +43967,7 @@
     </row>
     <row r="1436">
       <c r="A1436" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1436" t="s">
         <v>8</v>
@@ -43952,13 +43976,13 @@
         <v>306</v>
       </c>
       <c r="D1436" t="s">
-        <v>3284</v>
+        <v>3395</v>
       </c>
       <c r="E1436" t="s">
-        <v>3285</v>
+        <v>3396</v>
       </c>
       <c r="F1436" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="G1436" t="s">
         <v>209</v>
@@ -43966,7 +43990,7 @@
     </row>
     <row r="1437">
       <c r="A1437" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1437" t="s">
         <v>8</v>
@@ -43975,13 +43999,13 @@
         <v>306</v>
       </c>
       <c r="D1437" t="s">
-        <v>3395</v>
+        <v>3288</v>
       </c>
       <c r="E1437" t="s">
-        <v>3396</v>
+        <v>3289</v>
       </c>
       <c r="F1437" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="G1437" t="s">
         <v>209</v>
@@ -43989,7 +44013,7 @@
     </row>
     <row r="1438">
       <c r="A1438" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1438" t="s">
         <v>8</v>
@@ -43998,13 +44022,13 @@
         <v>306</v>
       </c>
       <c r="D1438" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E1438" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="F1438" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="G1438" t="s">
         <v>209</v>
@@ -44012,7 +44036,7 @@
     </row>
     <row r="1439">
       <c r="A1439" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1439" t="s">
         <v>8</v>
@@ -44021,13 +44045,13 @@
         <v>306</v>
       </c>
       <c r="D1439" t="s">
-        <v>3033</v>
+        <v>3402</v>
       </c>
       <c r="E1439" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="F1439" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="G1439" t="s">
         <v>209</v>
@@ -44035,7 +44059,7 @@
     </row>
     <row r="1440">
       <c r="A1440" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1440" t="s">
         <v>8</v>
@@ -44044,13 +44068,13 @@
         <v>306</v>
       </c>
       <c r="D1440" t="s">
-        <v>3403</v>
+        <v>3037</v>
       </c>
       <c r="E1440" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="F1440" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="G1440" t="s">
         <v>209</v>
@@ -44058,7 +44082,7 @@
     </row>
     <row r="1441">
       <c r="A1441" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1441" t="s">
         <v>8</v>
@@ -44067,13 +44091,13 @@
         <v>306</v>
       </c>
       <c r="D1441" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E1441" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="F1441" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="G1441" t="s">
         <v>209</v>
@@ -44081,7 +44105,7 @@
     </row>
     <row r="1442">
       <c r="A1442" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1442" t="s">
         <v>8</v>
@@ -44090,13 +44114,13 @@
         <v>306</v>
       </c>
       <c r="D1442" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="E1442" t="s">
-        <v>2133</v>
+        <v>3411</v>
       </c>
       <c r="F1442" t="s">
-        <v>3410</v>
+        <v>3412</v>
       </c>
       <c r="G1442" t="s">
         <v>209</v>
@@ -44104,7 +44128,7 @@
     </row>
     <row r="1443">
       <c r="A1443" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1443" t="s">
         <v>8</v>
@@ -44113,13 +44137,13 @@
         <v>306</v>
       </c>
       <c r="D1443" t="s">
-        <v>319</v>
+        <v>3413</v>
       </c>
       <c r="E1443" t="s">
-        <v>3223</v>
+        <v>2133</v>
       </c>
       <c r="F1443" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="G1443" t="s">
         <v>209</v>
@@ -44127,45 +44151,45 @@
     </row>
     <row r="1444">
       <c r="A1444" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1444" t="s">
         <v>8</v>
       </c>
       <c r="C1444" t="s">
-        <v>3412</v>
+        <v>306</v>
       </c>
       <c r="D1444" t="s">
-        <v>3413</v>
+        <v>319</v>
       </c>
       <c r="E1444" t="s">
-        <v>3414</v>
+        <v>3227</v>
       </c>
       <c r="F1444" t="s">
         <v>3415</v>
       </c>
       <c r="G1444" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1445" t="s">
         <v>8</v>
       </c>
       <c r="C1445" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1445" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="E1445" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="F1445" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="G1445" t="s">
         <v>69</v>
@@ -44173,19 +44197,19 @@
     </row>
     <row r="1446">
       <c r="A1446" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1446" t="s">
         <v>8</v>
       </c>
       <c r="C1446" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1446" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E1446" t="s">
         <v>3417</v>
-      </c>
-      <c r="E1446" t="s">
-        <v>3418</v>
       </c>
       <c r="F1446" t="s">
         <v>3419</v>
@@ -44196,13 +44220,13 @@
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1447" t="s">
         <v>8</v>
       </c>
       <c r="C1447" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1447" t="s">
         <v>3420</v>
@@ -44214,18 +44238,18 @@
         <v>3422</v>
       </c>
       <c r="G1447" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1448" t="s">
         <v>8</v>
       </c>
       <c r="C1448" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1448" t="s">
         <v>3423</v>
@@ -44242,13 +44266,13 @@
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1449" t="s">
         <v>8</v>
       </c>
       <c r="C1449" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1449" t="s">
         <v>3426</v>
@@ -44265,13 +44289,13 @@
     </row>
     <row r="1450">
       <c r="A1450" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1450" t="s">
         <v>8</v>
       </c>
       <c r="C1450" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1450" t="s">
         <v>3429</v>
@@ -44288,45 +44312,45 @@
     </row>
     <row r="1451">
       <c r="A1451" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1451" t="s">
         <v>8</v>
       </c>
       <c r="C1451" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1451" t="s">
-        <v>3423</v>
+        <v>3432</v>
       </c>
       <c r="E1451" t="s">
-        <v>3424</v>
+        <v>3433</v>
       </c>
       <c r="F1451" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="G1451" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1452" t="s">
         <v>8</v>
       </c>
       <c r="C1452" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1452" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
       <c r="E1452" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
       <c r="F1452" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="G1452" t="s">
         <v>108</v>
@@ -44334,19 +44358,19 @@
     </row>
     <row r="1453">
       <c r="A1453" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1453" t="s">
         <v>8</v>
       </c>
       <c r="C1453" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1453" t="s">
-        <v>3434</v>
+        <v>3426</v>
       </c>
       <c r="E1453" t="s">
-        <v>3435</v>
+        <v>3427</v>
       </c>
       <c r="F1453" t="s">
         <v>3436</v>
@@ -44357,13 +44381,13 @@
     </row>
     <row r="1454">
       <c r="A1454" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1454" t="s">
         <v>8</v>
       </c>
       <c r="C1454" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1454" t="s">
         <v>3437</v>
@@ -44380,13 +44404,13 @@
     </row>
     <row r="1455">
       <c r="A1455" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1455" t="s">
         <v>8</v>
       </c>
       <c r="C1455" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1455" t="s">
         <v>3440</v>
@@ -44403,13 +44427,13 @@
     </row>
     <row r="1456">
       <c r="A1456" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1456" t="s">
         <v>8</v>
       </c>
       <c r="C1456" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1456" t="s">
         <v>3443</v>
@@ -44421,18 +44445,18 @@
         <v>3445</v>
       </c>
       <c r="G1456" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1457" t="s">
         <v>8</v>
       </c>
       <c r="C1457" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1457" t="s">
         <v>3446</v>
@@ -44449,13 +44473,13 @@
     </row>
     <row r="1458">
       <c r="A1458" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1458" t="s">
         <v>8</v>
       </c>
       <c r="C1458" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1458" t="s">
         <v>3449</v>
@@ -44472,13 +44496,13 @@
     </row>
     <row r="1459">
       <c r="A1459" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1459" t="s">
         <v>8</v>
       </c>
       <c r="C1459" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1459" t="s">
         <v>3452</v>
@@ -44495,13 +44519,13 @@
     </row>
     <row r="1460">
       <c r="A1460" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1460" t="s">
         <v>8</v>
       </c>
       <c r="C1460" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1460" t="s">
         <v>3455</v>
@@ -44513,18 +44537,18 @@
         <v>3457</v>
       </c>
       <c r="G1460" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1461" t="s">
         <v>8</v>
       </c>
       <c r="C1461" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1461" t="s">
         <v>3458</v>
@@ -44541,13 +44565,13 @@
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1462" t="s">
         <v>8</v>
       </c>
       <c r="C1462" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1462" t="s">
         <v>3461</v>
@@ -44564,13 +44588,13 @@
     </row>
     <row r="1463">
       <c r="A1463" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1463" t="s">
         <v>8</v>
       </c>
       <c r="C1463" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1463" t="s">
         <v>3464</v>
@@ -44587,13 +44611,13 @@
     </row>
     <row r="1464">
       <c r="A1464" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1464" t="s">
         <v>8</v>
       </c>
       <c r="C1464" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1464" t="s">
         <v>3467</v>
@@ -44605,18 +44629,18 @@
         <v>3469</v>
       </c>
       <c r="G1464" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1465" t="s">
         <v>8</v>
       </c>
       <c r="C1465" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1465" t="s">
         <v>3470</v>
@@ -44633,13 +44657,13 @@
     </row>
     <row r="1466">
       <c r="A1466" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1466" t="s">
         <v>8</v>
       </c>
       <c r="C1466" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1466" t="s">
         <v>3473</v>
@@ -44651,18 +44675,18 @@
         <v>3475</v>
       </c>
       <c r="G1466" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1467" t="s">
         <v>8</v>
       </c>
       <c r="C1467" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1467" t="s">
         <v>3476</v>
@@ -44674,18 +44698,18 @@
         <v>3478</v>
       </c>
       <c r="G1467" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1468" t="s">
         <v>8</v>
       </c>
       <c r="C1468" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1468" t="s">
         <v>3479</v>
@@ -44697,18 +44721,18 @@
         <v>3481</v>
       </c>
       <c r="G1468" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1469" t="s">
         <v>8</v>
       </c>
       <c r="C1469" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1469" t="s">
         <v>3482</v>
@@ -44725,13 +44749,13 @@
     </row>
     <row r="1470">
       <c r="A1470" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1470" t="s">
         <v>8</v>
       </c>
       <c r="C1470" t="s">
-        <v>3412</v>
+        <v>2850</v>
       </c>
       <c r="D1470" t="s">
         <v>3485</v>
@@ -44748,36 +44772,36 @@
     </row>
     <row r="1471">
       <c r="A1471" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1471" t="s">
         <v>8</v>
       </c>
       <c r="C1471" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D1471" t="s">
         <v>3488</v>
       </c>
-      <c r="D1471" t="s">
+      <c r="E1471" t="s">
         <v>3489</v>
       </c>
-      <c r="E1471" t="s">
+      <c r="F1471" t="s">
         <v>3490</v>
       </c>
-      <c r="F1471" t="s">
-        <v>3491</v>
-      </c>
       <c r="G1471" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="B1472" t="s">
         <v>8</v>
       </c>
       <c r="C1472" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="D1472" t="s">
         <v>3492</v>
@@ -44789,58 +44813,58 @@
         <v>3494</v>
       </c>
       <c r="G1472" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D1473" t="s">
         <v>3495</v>
       </c>
-      <c r="B1473" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1473" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1473" t="s">
+      <c r="E1473" t="s">
         <v>3496</v>
-      </c>
-      <c r="E1473" t="s">
-        <v>2983</v>
       </c>
       <c r="F1473" t="s">
         <v>3497</v>
       </c>
       <c r="G1473" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="B1474" t="s">
         <v>8</v>
       </c>
       <c r="C1474" t="s">
-        <v>339</v>
+        <v>3499</v>
       </c>
       <c r="D1474" t="s">
-        <v>3496</v>
+        <v>3500</v>
       </c>
       <c r="E1474" t="s">
-        <v>2983</v>
+        <v>3501</v>
       </c>
       <c r="F1474" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="G1474" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1475" t="s">
         <v>8</v>
@@ -44849,13 +44873,13 @@
         <v>339</v>
       </c>
       <c r="D1475" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1475" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1475" t="s">
-        <v>3499</v>
+        <v>3505</v>
       </c>
       <c r="G1475" t="s">
         <v>108</v>
@@ -44863,7 +44887,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1476" t="s">
         <v>8</v>
@@ -44872,13 +44896,13 @@
         <v>339</v>
       </c>
       <c r="D1476" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1476" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1476" t="s">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="G1476" t="s">
         <v>108</v>
@@ -44886,7 +44910,7 @@
     </row>
     <row r="1477">
       <c r="A1477" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1477" t="s">
         <v>8</v>
@@ -44895,13 +44919,13 @@
         <v>339</v>
       </c>
       <c r="D1477" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1477" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1477" t="s">
-        <v>3501</v>
+        <v>3507</v>
       </c>
       <c r="G1477" t="s">
         <v>108</v>
@@ -44909,7 +44933,7 @@
     </row>
     <row r="1478">
       <c r="A1478" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1478" t="s">
         <v>8</v>
@@ -44918,21 +44942,21 @@
         <v>339</v>
       </c>
       <c r="D1478" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1478" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1478" t="s">
-        <v>3502</v>
+        <v>3508</v>
       </c>
       <c r="G1478" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1479" t="s">
         <v>8</v>
@@ -44941,21 +44965,21 @@
         <v>339</v>
       </c>
       <c r="D1479" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1479" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1479" t="s">
-        <v>3503</v>
+        <v>3509</v>
       </c>
       <c r="G1479" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1480" t="s">
         <v>8</v>
@@ -44964,13 +44988,13 @@
         <v>339</v>
       </c>
       <c r="D1480" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1480" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1480" t="s">
-        <v>3504</v>
+        <v>3510</v>
       </c>
       <c r="G1480" t="s">
         <v>135</v>
@@ -44978,7 +45002,7 @@
     </row>
     <row r="1481">
       <c r="A1481" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1481" t="s">
         <v>8</v>
@@ -44987,13 +45011,13 @@
         <v>339</v>
       </c>
       <c r="D1481" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1481" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1481" t="s">
-        <v>3505</v>
+        <v>3511</v>
       </c>
       <c r="G1481" t="s">
         <v>135</v>
@@ -45001,7 +45025,7 @@
     </row>
     <row r="1482">
       <c r="A1482" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1482" t="s">
         <v>8</v>
@@ -45010,13 +45034,13 @@
         <v>339</v>
       </c>
       <c r="D1482" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1482" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1482" t="s">
-        <v>3506</v>
+        <v>3512</v>
       </c>
       <c r="G1482" t="s">
         <v>135</v>
@@ -45024,7 +45048,7 @@
     </row>
     <row r="1483">
       <c r="A1483" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1483" t="s">
         <v>8</v>
@@ -45033,13 +45057,13 @@
         <v>339</v>
       </c>
       <c r="D1483" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1483" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1483" t="s">
-        <v>3507</v>
+        <v>3513</v>
       </c>
       <c r="G1483" t="s">
         <v>135</v>
@@ -45047,7 +45071,7 @@
     </row>
     <row r="1484">
       <c r="A1484" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1484" t="s">
         <v>8</v>
@@ -45056,13 +45080,13 @@
         <v>339</v>
       </c>
       <c r="D1484" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1484" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1484" t="s">
-        <v>3508</v>
+        <v>3514</v>
       </c>
       <c r="G1484" t="s">
         <v>135</v>
@@ -45070,7 +45094,7 @@
     </row>
     <row r="1485">
       <c r="A1485" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1485" t="s">
         <v>8</v>
@@ -45079,13 +45103,13 @@
         <v>339</v>
       </c>
       <c r="D1485" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1485" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1485" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
       <c r="G1485" t="s">
         <v>135</v>
@@ -45093,7 +45117,7 @@
     </row>
     <row r="1486">
       <c r="A1486" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1486" t="s">
         <v>8</v>
@@ -45102,13 +45126,13 @@
         <v>339</v>
       </c>
       <c r="D1486" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1486" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1486" t="s">
-        <v>3510</v>
+        <v>3516</v>
       </c>
       <c r="G1486" t="s">
         <v>135</v>
@@ -45116,7 +45140,7 @@
     </row>
     <row r="1487">
       <c r="A1487" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1487" t="s">
         <v>8</v>
@@ -45125,13 +45149,13 @@
         <v>339</v>
       </c>
       <c r="D1487" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1487" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1487" t="s">
-        <v>3511</v>
+        <v>3517</v>
       </c>
       <c r="G1487" t="s">
         <v>135</v>
@@ -45139,7 +45163,7 @@
     </row>
     <row r="1488">
       <c r="A1488" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1488" t="s">
         <v>8</v>
@@ -45148,13 +45172,13 @@
         <v>339</v>
       </c>
       <c r="D1488" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1488" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1488" t="s">
-        <v>3512</v>
+        <v>3518</v>
       </c>
       <c r="G1488" t="s">
         <v>135</v>
@@ -45162,7 +45186,7 @@
     </row>
     <row r="1489">
       <c r="A1489" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1489" t="s">
         <v>8</v>
@@ -45171,13 +45195,13 @@
         <v>339</v>
       </c>
       <c r="D1489" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1489" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1489" t="s">
-        <v>3513</v>
+        <v>3519</v>
       </c>
       <c r="G1489" t="s">
         <v>135</v>
@@ -45185,7 +45209,7 @@
     </row>
     <row r="1490">
       <c r="A1490" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1490" t="s">
         <v>8</v>
@@ -45194,13 +45218,13 @@
         <v>339</v>
       </c>
       <c r="D1490" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1490" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1490" t="s">
-        <v>3514</v>
+        <v>3520</v>
       </c>
       <c r="G1490" t="s">
         <v>135</v>
@@ -45208,7 +45232,7 @@
     </row>
     <row r="1491">
       <c r="A1491" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1491" t="s">
         <v>8</v>
@@ -45217,13 +45241,13 @@
         <v>339</v>
       </c>
       <c r="D1491" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1491" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1491" t="s">
-        <v>3515</v>
+        <v>3521</v>
       </c>
       <c r="G1491" t="s">
         <v>135</v>
@@ -45231,7 +45255,7 @@
     </row>
     <row r="1492">
       <c r="A1492" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="B1492" t="s">
         <v>8</v>
@@ -45240,21 +45264,67 @@
         <v>339</v>
       </c>
       <c r="D1492" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="E1492" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="F1492" t="s">
-        <v>3516</v>
+        <v>3522</v>
       </c>
       <c r="G1492" t="s">
         <v>135</v>
       </c>
     </row>
+    <row r="1493">
+      <c r="A1493" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1492"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G1494"/>
   </ignoredErrors>
 </worksheet>
 </file>